--- a/I2C-master/documentation/registers.xlsx
+++ b/I2C-master/documentation/registers.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="63">
   <si>
     <t>CTL</t>
   </si>
@@ -78,9 +78,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>CTL_RESERVE</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -90,30 +87,15 @@
     <t xml:space="preserve">W </t>
   </si>
   <si>
-    <t xml:space="preserve">read </t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>set at '1'</t>
-  </si>
-  <si>
-    <t>clear at '0'</t>
-  </si>
-  <si>
     <t>RW</t>
   </si>
   <si>
-    <t>write at '0' or '1'</t>
-  </si>
-  <si>
     <t>RC</t>
   </si>
   <si>
-    <t xml:space="preserve">Register for I2C Engine Global </t>
-  </si>
-  <si>
     <t>ST_BUSY</t>
   </si>
   <si>
@@ -148,13 +130,88 @@
   </si>
   <si>
     <t>RX_DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read </t>
+  </si>
+  <si>
+    <t>Write at '0' or '1'</t>
+  </si>
+  <si>
+    <t>Set at '1'</t>
+  </si>
+  <si>
+    <t>Clear at '0'</t>
+  </si>
+  <si>
+    <t>CTL_RESERVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register for I2C Master Engine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register for I2C Global Engine </t>
+  </si>
+  <si>
+    <t>Master inputs:</t>
+  </si>
+  <si>
+    <t>Master outputs</t>
+  </si>
+  <si>
+    <t>CTL_RESTART_C</t>
+  </si>
+  <si>
+    <t>CTL_STOP_C</t>
+  </si>
+  <si>
+    <t>CTL_START_C</t>
+  </si>
+  <si>
+    <t>ST_RX_FULL_S</t>
+  </si>
+  <si>
+    <t>ST_TX_EMPTY_S</t>
+  </si>
+  <si>
+    <t>ST_RESTART_DETC_W</t>
+  </si>
+  <si>
+    <t>ST_STOP_DETC_W</t>
+  </si>
+  <si>
+    <t>ST_START_DETC_W</t>
+  </si>
+  <si>
+    <t>ST_ACK_REC_S</t>
+  </si>
+  <si>
+    <t>RX_DATA_W</t>
+  </si>
+  <si>
+    <t>NON-USE REGISTER</t>
+  </si>
+  <si>
+    <t>???????</t>
+  </si>
+  <si>
+    <t>ST_BUSY_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERRUPT CTL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERRUPT STATUS </t>
+  </si>
+  <si>
+    <t>BAUD_RATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +234,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,16 +336,57 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,15 +690,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -604,21 +728,21 @@
       <c r="K4" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>7</v>
@@ -647,14 +771,14 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -680,293 +804,294 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -983,7 +1108,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -991,13 +1116,16 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1011,109 +1139,121 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -1137,7 +1277,9 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1178,7 +1320,9 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1200,12 +1344,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1218,10 +1356,16 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1230,13 +1374,907 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="26">
+        <v>1</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="26">
+        <v>2</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="P16" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="26">
+        <v>3</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="P17" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="26">
+        <v>4</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="P18" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="26">
+        <v>5</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="P19" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="26">
+        <v>6</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="11"/>
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="P20" s="26">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="26">
+        <v>7</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="11"/>
+      <c r="E21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="P21" s="26">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="26">
+        <v>8</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="P22" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="26">
+        <v>9</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="11"/>
+      <c r="E23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="P23" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="26">
+        <v>10</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="11"/>
+      <c r="E24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="S24" s="29">
+        <v>11</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="11"/>
+      <c r="E27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="19"/>
+      <c r="E29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="19"/>
+      <c r="E30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="19"/>
+      <c r="E32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="19"/>
+      <c r="E33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="19"/>
+      <c r="E35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="19"/>
+      <c r="E36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="19"/>
+      <c r="E38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="19"/>
+      <c r="E39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="19"/>
+      <c r="E41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="19"/>
+      <c r="E42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/I2C-master/documentation/registers.xlsx
+++ b/I2C-master/documentation/registers.xlsx
@@ -340,15 +340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,9 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,15 +366,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,21 +728,21 @@
       <c r="K4" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>7</v>
@@ -771,7 +771,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -804,7 +804,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -899,7 +899,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -967,22 +967,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -992,20 +992,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1015,20 +1015,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="D17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1038,60 +1038,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="D19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1108,7 +1108,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="18" t="s">
         <v>58</v>
       </c>
       <c r="I22" s="8"/>
@@ -1125,7 +1125,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1148,57 +1148,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="E26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1207,57 +1207,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="E29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1272,12 +1272,12 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="18" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="8"/>
@@ -1287,7 +1287,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1300,7 +1300,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1315,12 +1315,12 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="18" t="s">
         <v>58</v>
       </c>
       <c r="H34" s="8"/>
@@ -1330,7 +1330,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1344,6 +1344,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1360,12 +1366,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
       <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1438,21 +1438,21 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N7" s="18"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
@@ -1483,16 +1483,16 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -1515,14 +1515,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="11"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -1545,14 +1545,14 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="11"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1575,7 +1575,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1584,7 +1584,7 @@
       <c r="F13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -1605,25 +1605,25 @@
       <c r="M13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="25"/>
+      <c r="Q13" s="29"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="25"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D14" s="11"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -1644,29 +1644,29 @@
       <c r="M14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="21">
         <v>1</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="26">
+      <c r="S14" s="21">
         <v>1</v>
       </c>
-      <c r="T14" s="28" t="s">
+      <c r="T14" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="11"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -1687,200 +1687,200 @@
       <c r="M15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="21">
         <v>2</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="26">
+      <c r="S15" s="21">
         <v>2</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="T15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="P16" s="26">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="P16" s="21">
         <v>3</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="26">
+      <c r="S16" s="21">
         <v>3</v>
       </c>
-      <c r="T16" s="27" t="s">
+      <c r="T16" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="P17" s="26">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="P17" s="21">
         <v>4</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="26">
+      <c r="S17" s="21">
         <v>4</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="P18" s="26">
+      <c r="F18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="P18" s="21">
         <v>5</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="26">
+      <c r="S18" s="21">
         <v>5</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="T18" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="P19" s="26">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="P19" s="21">
         <v>6</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="22" t="s">
         <v>18</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="26">
+      <c r="S19" s="21">
         <v>6</v>
       </c>
-      <c r="T19" s="27" t="s">
+      <c r="T19" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="11"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="P20" s="26">
+      <c r="F20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="P20" s="21">
         <v>7</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="22" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="26">
+      <c r="S20" s="21">
         <v>7</v>
       </c>
-      <c r="T20" s="27" t="s">
+      <c r="T20" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="11"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="P21" s="26">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="P21" s="21">
         <v>8</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="22" t="s">
         <v>35</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="26">
+      <c r="S21" s="21">
         <v>8</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="T21" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -1894,22 +1894,22 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="P22" s="26">
+      <c r="P22" s="21">
         <v>9</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="22" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="26">
+      <c r="S22" s="21">
         <v>9</v>
       </c>
-      <c r="T22" s="27" t="s">
+      <c r="T22" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="11"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
@@ -1921,26 +1921,26 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="P23" s="26">
+      <c r="P23" s="21">
         <v>10</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="22" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="1"/>
-      <c r="S23" s="26">
+      <c r="S23" s="21">
         <v>10</v>
       </c>
-      <c r="T23" s="27" t="s">
+      <c r="T23" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="11"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1948,15 +1948,15 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="S24" s="29">
+      <c r="S24" s="24">
         <v>11</v>
       </c>
-      <c r="T24" s="27" t="s">
+      <c r="T24" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -1965,287 +1965,297 @@
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="11"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="11"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="G27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="19"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="19"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="G30" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="18"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="19"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="19"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="19"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="19"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="19"/>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="19"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="19"/>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="19"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2262,16 +2272,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/documentation/registers.xlsx
+++ b/I2C-master/documentation/registers.xlsx
@@ -1344,12 +1344,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1366,6 +1360,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
@@ -1786,8 +1786,8 @@
       <c r="S18" s="21">
         <v>5</v>
       </c>
-      <c r="T18" s="23" t="s">
-        <v>51</v>
+      <c r="T18" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
@@ -1817,8 +1817,8 @@
       <c r="S19" s="21">
         <v>6</v>
       </c>
-      <c r="T19" s="22" t="s">
-        <v>52</v>
+      <c r="T19" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="T21" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="T22" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="T24" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.25">
@@ -2246,16 +2246,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2272,6 +2262,16 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/documentation/registers.xlsx
+++ b/I2C-master/documentation/registers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
   <si>
     <t>CTL</t>
   </si>
@@ -205,6 +205,36 @@
   </si>
   <si>
     <t>BAUD_RATE</t>
+  </si>
+  <si>
+    <t>scl_tick_generator</t>
+  </si>
+  <si>
+    <t>scl_out_generator</t>
+  </si>
+  <si>
+    <t>modul(.vhd) needed for master</t>
+  </si>
+  <si>
+    <t>SCL_detect</t>
+  </si>
+  <si>
+    <t>start_generator</t>
+  </si>
+  <si>
+    <t>stop_generator</t>
+  </si>
+  <si>
+    <t>restart_generator</t>
+  </si>
+  <si>
+    <t>shift_register_receiver</t>
+  </si>
+  <si>
+    <t>shift_register_transmitter</t>
+  </si>
+  <si>
+    <t>flip_flop</t>
   </si>
 </sst>
 </file>
@@ -690,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:K29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,6 +1374,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1360,12 +1396,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1376,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,6 +2276,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2262,16 +2302,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2280,12 +2310,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/I2C-master/documentation/registers.xlsx
+++ b/I2C-master/documentation/registers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -344,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,7 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +413,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,6 +429,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1170,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>58</v>
       </c>
       <c r="I22" s="8"/>
@@ -1307,7 +1331,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="8"/>
@@ -1350,7 +1374,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H34" s="8"/>
@@ -1374,12 +1398,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1396,6 +1414,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1406,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,11 +1479,12 @@
       <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1468,7 +1493,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N7" s="15"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D8" s="27" t="s">
@@ -1519,16 +1544,16 @@
       <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="30" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -1540,7 +1565,7 @@
       <c r="L10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1549,16 +1574,16 @@
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -1570,7 +1595,7 @@
       <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="30" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1579,16 +1604,16 @@
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -1600,7 +1625,7 @@
       <c r="L12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1611,28 +1636,28 @@
       <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="30" t="s">
         <v>32</v>
       </c>
       <c r="P13" s="29" t="s">
@@ -1650,41 +1675,41 @@
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="J14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="21">
+      <c r="K14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="20">
         <v>1</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <v>1</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="22" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1693,41 +1718,41 @@
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="J15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="21">
+      <c r="K15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="20">
         <v>2</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>2</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="T15" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1738,27 +1763,27 @@
       <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="P16" s="21">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="P16" s="20">
         <v>3</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <v>3</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1767,27 +1792,27 @@
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="P17" s="21">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="P17" s="20">
         <v>4</v>
       </c>
-      <c r="Q17" s="22" t="s">
+      <c r="Q17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="21">
+      <c r="S17" s="20">
         <v>4</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="T17" s="21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1796,27 +1821,27 @@
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="P18" s="21">
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="P18" s="20">
         <v>5</v>
       </c>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>5</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1827,27 +1852,27 @@
       <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="P19" s="21">
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="P19" s="20">
         <v>6</v>
       </c>
-      <c r="Q19" s="22" t="s">
+      <c r="Q19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>6</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1856,27 +1881,27 @@
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="P20" s="21">
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="P20" s="20">
         <v>7</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Q20" s="21" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="21">
+      <c r="S20" s="20">
         <v>7</v>
       </c>
-      <c r="T20" s="22" t="s">
+      <c r="T20" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1885,27 +1910,27 @@
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="P21" s="21">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="P21" s="20">
         <v>8</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="Q21" s="21" t="s">
         <v>35</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="21">
+      <c r="S21" s="20">
         <v>8</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="T21" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1924,17 +1949,17 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="P22" s="21">
+      <c r="P22" s="20">
         <v>9</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="21">
+      <c r="S22" s="20">
         <v>9</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="T22" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1951,17 +1976,17 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="P23" s="21">
+      <c r="P23" s="20">
         <v>10</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="Q23" s="21" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="1"/>
-      <c r="S23" s="21">
+      <c r="S23" s="20">
         <v>10</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="T23" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1970,7 +1995,7 @@
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1978,10 +2003,10 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="S24" s="24">
+      <c r="S24" s="23">
         <v>11</v>
       </c>
-      <c r="T24" s="22" t="s">
+      <c r="T24" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2045,10 +2070,10 @@
       <c r="D28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="28" t="s">
@@ -2063,10 +2088,10 @@
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D29" s="28"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="28" t="s">
@@ -2081,10 +2106,10 @@
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="28"/>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="28" t="s">
@@ -2101,191 +2126,181 @@
       <c r="D31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D32" s="28"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="28"/>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="28"/>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="28"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="28"/>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="28"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="28"/>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" s="28"/>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2302,6 +2317,16 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/I2C-master/documentation/registers.xlsx
+++ b/I2C-master/documentation/registers.xlsx
@@ -279,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,11 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +754,7 @@
   <dimension ref="B3:O35"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,18 +791,18 @@
       <c r="K4" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -825,7 +834,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -858,7 +867,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
@@ -889,7 +898,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -920,7 +929,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -953,7 +962,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
@@ -979,12 +988,12 @@
         <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="4" t="s">
@@ -1021,22 +1030,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>22</v>
@@ -1046,20 +1055,20 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
         <v>23</v>
@@ -1069,20 +1078,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
@@ -1092,60 +1101,60 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="D19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1162,7 +1171,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1188,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1202,57 +1211,57 @@
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1261,57 +1270,57 @@
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="E29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8"/>
@@ -1326,7 +1335,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1341,7 +1350,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1354,7 +1363,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8"/>
@@ -1369,7 +1378,7 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1384,7 +1393,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1398,6 +1407,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1414,12 +1429,6 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1430,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,18 +1505,18 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
@@ -1538,22 +1547,22 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -1565,25 +1574,25 @@
       <c r="L10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="25"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -1595,25 +1604,25 @@
       <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D12" s="25"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="30" t="s">
+      <c r="G12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -1625,27 +1634,27 @@
       <c r="L12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="25" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -1657,34 +1666,34 @@
       <c r="L13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="29" t="s">
+      <c r="P13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="29"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="29"/>
+      <c r="T13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D14" s="25"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -1696,8 +1705,8 @@
       <c r="L14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="30" t="s">
-        <v>25</v>
+      <c r="M14" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="P14" s="20">
         <v>1</v>
@@ -1714,20 +1723,20 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="25"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="25" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="24" t="s">
@@ -1739,9 +1748,10 @@
       <c r="L15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="M15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="14"/>
       <c r="P15" s="20">
         <v>2</v>
       </c>
@@ -1757,22 +1767,22 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="P16" s="20">
         <v>3</v>
       </c>
@@ -1788,20 +1798,20 @@
       </c>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="25"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="P17" s="20">
         <v>4</v>
       </c>
@@ -1817,20 +1827,20 @@
       </c>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="25"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="F18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
       <c r="P18" s="20">
         <v>5</v>
       </c>
@@ -1846,22 +1856,22 @@
       </c>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
       <c r="P19" s="20">
         <v>6</v>
       </c>
@@ -1877,20 +1887,20 @@
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="25"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="F20" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="P20" s="20">
         <v>7</v>
       </c>
@@ -1906,20 +1916,20 @@
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="25"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="P21" s="20">
         <v>8</v>
       </c>
@@ -1935,7 +1945,7 @@
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -1964,7 +1974,7 @@
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="25"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +2001,7 @@
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="25"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
@@ -2011,7 +2021,7 @@
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2020,54 +2030,54 @@
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="25"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="25"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="G27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2076,54 +2086,54 @@
       <c r="F28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="28"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="28"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="G30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2140,7 +2150,7 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="28"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="12" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2164,7 @@
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="28"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2178,7 @@
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2184,7 +2194,7 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="28"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2208,7 @@
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="28"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="12" t="s">
         <v>2</v>
       </c>
@@ -2212,7 +2222,7 @@
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2228,7 +2238,7 @@
       <c r="M37" s="19"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="28"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="12" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2252,7 @@
       <c r="M38" s="19"/>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="28"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2266,7 @@
       <c r="M39" s="19"/>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2272,7 +2282,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="28"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2296,7 @@
       <c r="M41" s="16"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="28"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="12" t="s">
         <v>2</v>
       </c>
@@ -2301,6 +2311,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="S13:T13"/>
@@ -2317,16 +2337,6 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
